--- a/com/usst/cajiapo_train.xlsx
+++ b/com/usst/cajiapo_train.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PyCharm\scipy\com\usst\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8415"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8415"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="360">
   <si>
     <t>date</t>
   </si>
@@ -1099,14 +1104,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1122,352 +1121,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1490,251 +1158,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1743,58 +1169,19 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2082,15 +1469,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="2" width="13.875" customWidth="1"/>
@@ -2103,7 +1489,7 @@
     <col min="9" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2132,7 +1518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>43108</v>
       </c>
@@ -2161,7 +1547,7 @@
         <v>1.371</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2187,10 +1573,10 @@
         <v>420</v>
       </c>
       <c r="I3">
-        <v>0.118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2219,7 +1605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2239,7 +1625,7 @@
         <v>32</v>
       </c>
       <c r="G5">
-        <v>0.009</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -2248,7 +1634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2268,7 +1654,7 @@
         <v>127</v>
       </c>
       <c r="G6">
-        <v>0.035</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -2277,7 +1663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -2297,7 +1683,7 @@
         <v>140</v>
       </c>
       <c r="G7">
-        <v>0.031</v>
+        <v>3.1E-2</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -2306,7 +1692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -2326,7 +1712,7 @@
         <v>280</v>
       </c>
       <c r="G8">
-        <v>0.059</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2335,7 +1721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -2355,7 +1741,7 @@
         <v>1260</v>
       </c>
       <c r="G9">
-        <v>0.304</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -2364,7 +1750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -2384,7 +1770,7 @@
         <v>980</v>
       </c>
       <c r="G10">
-        <v>0.284</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2393,7 +1779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -2413,16 +1799,16 @@
         <v>3920</v>
       </c>
       <c r="G11">
-        <v>0.721</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="H11">
         <v>32</v>
       </c>
       <c r="I11">
-        <v>0.009</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -2442,16 +1828,16 @@
         <v>4480</v>
       </c>
       <c r="G12">
-        <v>1.178</v>
+        <v>1.1779999999999999</v>
       </c>
       <c r="H12">
         <v>127</v>
       </c>
       <c r="I12">
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -2471,16 +1857,16 @@
         <v>3360</v>
       </c>
       <c r="G13">
-        <v>0.696</v>
+        <v>0.69599999999999995</v>
       </c>
       <c r="H13">
         <v>140</v>
       </c>
       <c r="I13">
-        <v>0.031</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -2506,10 +1892,10 @@
         <v>280</v>
       </c>
       <c r="I14">
-        <v>0.059</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -2535,10 +1921,10 @@
         <v>1260</v>
       </c>
       <c r="I15">
-        <v>0.304</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.30399999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -2558,16 +1944,16 @@
         <v>5460</v>
       </c>
       <c r="G16">
-        <v>1.078</v>
+        <v>1.0780000000000001</v>
       </c>
       <c r="H16">
         <v>980</v>
       </c>
       <c r="I16">
-        <v>0.284</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>0.28399999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -2587,16 +1973,16 @@
         <v>3390</v>
       </c>
       <c r="G17">
-        <v>0.848</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="H17">
         <v>3920</v>
       </c>
       <c r="I17">
-        <v>0.721</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>0.72099999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -2616,16 +2002,16 @@
         <v>4620</v>
       </c>
       <c r="G18">
-        <v>0.863</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="H18">
         <v>4480</v>
       </c>
       <c r="I18">
-        <v>1.178</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>1.1779999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -2645,16 +2031,16 @@
         <v>90</v>
       </c>
       <c r="G19">
-        <v>0.045</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="H19">
         <v>3360</v>
       </c>
       <c r="I19">
-        <v>0.696</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>0.69599999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -2683,7 +2069,7 @@
         <v>1.123</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -2712,7 +2098,7 @@
         <v>1.153</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -2738,10 +2124,10 @@
         <v>5460</v>
       </c>
       <c r="I22">
-        <v>1.078</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>1.0780000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -2767,10 +2153,10 @@
         <v>3390</v>
       </c>
       <c r="I23">
-        <v>0.848</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0.84799999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -2790,16 +2176,16 @@
         <v>140</v>
       </c>
       <c r="G24">
-        <v>0.031</v>
+        <v>3.1E-2</v>
       </c>
       <c r="H24">
         <v>4620</v>
       </c>
       <c r="I24">
-        <v>0.863</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>0.86299999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -2819,16 +2205,16 @@
         <v>140</v>
       </c>
       <c r="G25">
-        <v>0.072</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="H25">
         <v>90</v>
       </c>
       <c r="I25">
-        <v>0.045</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -2848,7 +2234,7 @@
         <v>3920</v>
       </c>
       <c r="G26">
-        <v>0.939</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2857,7 +2243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -2877,7 +2263,7 @@
         <v>5040</v>
       </c>
       <c r="G27">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2886,7 +2272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -2915,7 +2301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -2935,7 +2321,7 @@
         <v>6720</v>
       </c>
       <c r="G29">
-        <v>1.146</v>
+        <v>1.1459999999999999</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -2944,7 +2330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -2970,10 +2356,10 @@
         <v>140</v>
       </c>
       <c r="I30">
-        <v>0.031</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -2993,16 +2379,16 @@
         <v>6720</v>
       </c>
       <c r="G31">
-        <v>1.172</v>
+        <v>1.1719999999999999</v>
       </c>
       <c r="H31">
         <v>140</v>
       </c>
       <c r="I31">
-        <v>0.072</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -3022,16 +2408,16 @@
         <v>6720</v>
       </c>
       <c r="G32">
-        <v>1.138</v>
+        <v>1.1379999999999999</v>
       </c>
       <c r="H32">
         <v>3920</v>
       </c>
       <c r="I32">
-        <v>0.939</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>0.93899999999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -3051,16 +2437,16 @@
         <v>3360</v>
       </c>
       <c r="G33">
-        <v>0.843</v>
+        <v>0.84299999999999997</v>
       </c>
       <c r="H33">
         <v>5040</v>
       </c>
       <c r="I33">
-        <v>1.11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -3089,7 +2475,7 @@
         <v>1.232</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -3115,10 +2501,10 @@
         <v>6720</v>
       </c>
       <c r="I35">
-        <v>1.146</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>1.1459999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -3138,7 +2524,7 @@
         <v>8400</v>
       </c>
       <c r="G36">
-        <v>1.447</v>
+        <v>1.4470000000000001</v>
       </c>
       <c r="H36">
         <v>6300</v>
@@ -3147,7 +2533,7 @@
         <v>1.208</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -3173,10 +2559,10 @@
         <v>6720</v>
       </c>
       <c r="I37">
-        <v>1.172</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>1.1719999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>63</v>
       </c>
@@ -3202,10 +2588,10 @@
         <v>6720</v>
       </c>
       <c r="I38">
-        <v>1.138</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>1.1379999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -3231,10 +2617,10 @@
         <v>3360</v>
       </c>
       <c r="I39">
-        <v>0.843</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>0.84299999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>67</v>
       </c>
@@ -3254,7 +2640,7 @@
         <v>10780</v>
       </c>
       <c r="G40">
-        <v>2.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="H40">
         <v>5740</v>
@@ -3263,7 +2649,7 @@
         <v>1.123</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>68</v>
       </c>
@@ -3292,7 +2678,7 @@
         <v>1.109</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>70</v>
       </c>
@@ -3318,10 +2704,10 @@
         <v>8400</v>
       </c>
       <c r="I42">
-        <v>1.447</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>1.4470000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>71</v>
       </c>
@@ -3341,7 +2727,7 @@
         <v>980</v>
       </c>
       <c r="G43">
-        <v>0.304</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="H43">
         <v>8820</v>
@@ -3350,7 +2736,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>72</v>
       </c>
@@ -3370,7 +2756,7 @@
         <v>4480</v>
       </c>
       <c r="G44">
-        <v>1.074</v>
+        <v>1.0740000000000001</v>
       </c>
       <c r="H44">
         <v>9940</v>
@@ -3379,7 +2765,7 @@
         <v>1.635</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>73</v>
       </c>
@@ -3408,7 +2794,7 @@
         <v>1.831</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>75</v>
       </c>
@@ -3428,16 +2814,16 @@
         <v>2240</v>
       </c>
       <c r="G46">
-        <v>0.449</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="H46">
         <v>10780</v>
       </c>
       <c r="I46">
-        <v>2.05</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>76</v>
       </c>
@@ -3466,7 +2852,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>78</v>
       </c>
@@ -3486,7 +2872,7 @@
         <v>11340</v>
       </c>
       <c r="G48">
-        <v>1.731</v>
+        <v>1.7310000000000001</v>
       </c>
       <c r="H48">
         <v>10500</v>
@@ -3495,7 +2881,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>80</v>
       </c>
@@ -3521,10 +2907,10 @@
         <v>980</v>
       </c>
       <c r="I49">
-        <v>0.304</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>0.30399999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>81</v>
       </c>
@@ -3544,16 +2930,16 @@
         <v>10360</v>
       </c>
       <c r="G50">
-        <v>1.678</v>
+        <v>1.6779999999999999</v>
       </c>
       <c r="H50">
         <v>4480</v>
       </c>
       <c r="I50">
-        <v>1.074</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>1.0740000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>83</v>
       </c>
@@ -3573,7 +2959,7 @@
         <v>9940</v>
       </c>
       <c r="G51">
-        <v>1.584</v>
+        <v>1.5840000000000001</v>
       </c>
       <c r="H51">
         <v>5880</v>
@@ -3582,7 +2968,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>84</v>
       </c>
@@ -3602,16 +2988,16 @@
         <v>6300</v>
       </c>
       <c r="G52">
-        <v>1.682</v>
+        <v>1.6819999999999999</v>
       </c>
       <c r="H52">
         <v>2240</v>
       </c>
       <c r="I52">
-        <v>0.449</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>0.44900000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>85</v>
       </c>
@@ -3631,7 +3017,7 @@
         <v>7840</v>
       </c>
       <c r="G53">
-        <v>1.384</v>
+        <v>1.3839999999999999</v>
       </c>
       <c r="H53">
         <v>9240</v>
@@ -3640,7 +3026,7 @@
         <v>1.974</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>87</v>
       </c>
@@ -3666,10 +3052,10 @@
         <v>11340</v>
       </c>
       <c r="I54">
-        <v>1.731</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>1.7310000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>88</v>
       </c>
@@ -3698,7 +3084,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>90</v>
       </c>
@@ -3724,10 +3110,10 @@
         <v>10360</v>
       </c>
       <c r="I56">
-        <v>1.678</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>1.6779999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>92</v>
       </c>
@@ -3753,10 +3139,10 @@
         <v>9940</v>
       </c>
       <c r="I57">
-        <v>1.584</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>1.5840000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>93</v>
       </c>
@@ -3782,10 +3168,10 @@
         <v>6300</v>
       </c>
       <c r="I58">
-        <v>1.682</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>1.6819999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>94</v>
       </c>
@@ -3805,16 +3191,16 @@
         <v>2520</v>
       </c>
       <c r="G59">
-        <v>0.883</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="H59">
         <v>7840</v>
       </c>
       <c r="I59">
-        <v>1.384</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>1.3839999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>95</v>
       </c>
@@ -3834,7 +3220,7 @@
         <v>840</v>
       </c>
       <c r="G60">
-        <v>0.333</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="H60">
         <v>10500</v>
@@ -3843,7 +3229,7 @@
         <v>1.619</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>97</v>
       </c>
@@ -3872,7 +3258,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>98</v>
       </c>
@@ -3901,7 +3287,7 @@
         <v>1.514</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>99</v>
       </c>
@@ -3921,7 +3307,7 @@
         <v>10360</v>
       </c>
       <c r="G63">
-        <v>1.545</v>
+        <v>1.5449999999999999</v>
       </c>
       <c r="H63">
         <v>8400</v>
@@ -3930,7 +3316,7 @@
         <v>1.363</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>100</v>
       </c>
@@ -3959,7 +3345,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>102</v>
       </c>
@@ -3979,16 +3365,16 @@
         <v>9520</v>
       </c>
       <c r="G65">
-        <v>1.507</v>
+        <v>1.5069999999999999</v>
       </c>
       <c r="H65">
         <v>2520</v>
       </c>
       <c r="I65">
-        <v>0.883</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>0.88300000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>103</v>
       </c>
@@ -4014,10 +3400,10 @@
         <v>840</v>
       </c>
       <c r="I66">
-        <v>0.333</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>105</v>
       </c>
@@ -4046,7 +3432,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>107</v>
       </c>
@@ -4075,7 +3461,7 @@
         <v>1.591</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>109</v>
       </c>
@@ -4101,10 +3487,10 @@
         <v>10360</v>
       </c>
       <c r="I69">
-        <v>1.545</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>1.5449999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>110</v>
       </c>
@@ -4124,7 +3510,7 @@
         <v>3360</v>
       </c>
       <c r="G70">
-        <v>1.104</v>
+        <v>1.1040000000000001</v>
       </c>
       <c r="H70">
         <v>4720</v>
@@ -4133,7 +3519,7 @@
         <v>1.401</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>111</v>
       </c>
@@ -4153,16 +3539,16 @@
         <v>1400</v>
       </c>
       <c r="G71">
-        <v>0.396</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="H71">
         <v>9520</v>
       </c>
       <c r="I71">
-        <v>1.507</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>1.5069999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>112</v>
       </c>
@@ -4191,7 +3577,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>113</v>
       </c>
@@ -4211,7 +3597,7 @@
         <v>4620</v>
       </c>
       <c r="G73">
-        <v>0.117</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="H73">
         <v>9520</v>
@@ -4220,7 +3606,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>114</v>
       </c>
@@ -4249,7 +3635,7 @@
         <v>1.496</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>115</v>
       </c>
@@ -4278,7 +3664,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>116</v>
       </c>
@@ -4304,10 +3690,10 @@
         <v>3360</v>
       </c>
       <c r="I76">
-        <v>1.104</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>1.1040000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>118</v>
       </c>
@@ -4333,10 +3719,10 @@
         <v>1400</v>
       </c>
       <c r="I77">
-        <v>0.396</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>0.39600000000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>119</v>
       </c>
@@ -4356,7 +3742,7 @@
         <v>8540</v>
       </c>
       <c r="G78">
-        <v>1.705</v>
+        <v>1.7050000000000001</v>
       </c>
       <c r="H78">
         <v>1120</v>
@@ -4365,7 +3751,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>120</v>
       </c>
@@ -4385,16 +3771,16 @@
         <v>9240</v>
       </c>
       <c r="G79">
-        <v>1.688</v>
+        <v>1.6879999999999999</v>
       </c>
       <c r="H79">
         <v>4620</v>
       </c>
       <c r="I79">
-        <v>0.117</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>122</v>
       </c>
@@ -4423,7 +3809,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>124</v>
       </c>
@@ -4443,7 +3829,7 @@
         <v>16660</v>
       </c>
       <c r="G81">
-        <v>2.422</v>
+        <v>2.4220000000000002</v>
       </c>
       <c r="H81">
         <v>7000</v>
@@ -4452,7 +3838,7 @@
         <v>1.032</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>125</v>
       </c>
@@ -4472,7 +3858,7 @@
         <v>17220</v>
       </c>
       <c r="G82">
-        <v>2.397</v>
+        <v>2.3969999999999998</v>
       </c>
       <c r="H82">
         <v>4340</v>
@@ -4481,7 +3867,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>127</v>
       </c>
@@ -4501,7 +3887,7 @@
         <v>15820</v>
       </c>
       <c r="G83">
-        <v>2.273</v>
+        <v>2.2730000000000001</v>
       </c>
       <c r="H83">
         <v>7280</v>
@@ -4510,7 +3896,7 @@
         <v>1.579</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>128</v>
       </c>
@@ -4536,10 +3922,10 @@
         <v>8540</v>
       </c>
       <c r="I84">
-        <v>1.705</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>1.7050000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>129</v>
       </c>
@@ -4565,10 +3951,10 @@
         <v>9240</v>
       </c>
       <c r="I85">
-        <v>1.688</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>1.6879999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>130</v>
       </c>
@@ -4588,7 +3974,7 @@
         <v>13860</v>
       </c>
       <c r="G86">
-        <v>1.989</v>
+        <v>1.9890000000000001</v>
       </c>
       <c r="H86">
         <v>9800</v>
@@ -4597,7 +3983,7 @@
         <v>1.579</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>132</v>
       </c>
@@ -4623,10 +4009,10 @@
         <v>16660</v>
       </c>
       <c r="I87">
-        <v>2.422</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>2.4220000000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>133</v>
       </c>
@@ -4646,16 +4032,16 @@
         <v>13580</v>
       </c>
       <c r="G88">
-        <v>1.967</v>
+        <v>1.9670000000000001</v>
       </c>
       <c r="H88">
         <v>17220</v>
       </c>
       <c r="I88">
-        <v>2.397</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>2.3969999999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>134</v>
       </c>
@@ -4681,10 +4067,10 @@
         <v>15820</v>
       </c>
       <c r="I89">
-        <v>2.273</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>2.2730000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>135</v>
       </c>
@@ -4713,7 +4099,7 @@
         <v>1.095</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>136</v>
       </c>
@@ -4733,7 +4119,7 @@
         <v>15120</v>
       </c>
       <c r="G91">
-        <v>2.189</v>
+        <v>2.1890000000000001</v>
       </c>
       <c r="H91">
         <v>6300</v>
@@ -4742,7 +4128,7 @@
         <v>1.738</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>137</v>
       </c>
@@ -4762,16 +4148,16 @@
         <v>15540</v>
       </c>
       <c r="G92">
-        <v>2.128</v>
+        <v>2.1280000000000001</v>
       </c>
       <c r="H92">
         <v>13860</v>
       </c>
       <c r="I92">
-        <v>1.989</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>1.9890000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>138</v>
       </c>
@@ -4800,7 +4186,7 @@
         <v>2.016</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>140</v>
       </c>
@@ -4826,10 +4212,10 @@
         <v>13580</v>
       </c>
       <c r="I94">
-        <v>1.967</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>1.9670000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>141</v>
       </c>
@@ -4858,7 +4244,7 @@
         <v>1.296</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>142</v>
       </c>
@@ -4878,7 +4264,7 @@
         <v>7280</v>
       </c>
       <c r="G96">
-        <v>1.951</v>
+        <v>1.9510000000000001</v>
       </c>
       <c r="H96">
         <v>10920</v>
@@ -4887,7 +4273,7 @@
         <v>1.837</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>143</v>
       </c>
@@ -4907,16 +4293,16 @@
         <v>560</v>
       </c>
       <c r="G97">
-        <v>0.277</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="H97">
         <v>15120</v>
       </c>
       <c r="I97">
-        <v>2.189</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>2.1890000000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>144</v>
       </c>
@@ -4936,16 +4322,16 @@
         <v>2940</v>
       </c>
       <c r="G98">
-        <v>1.003</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="H98">
         <v>15540</v>
       </c>
       <c r="I98">
-        <v>2.128</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>2.1280000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>145</v>
       </c>
@@ -4965,7 +4351,7 @@
         <v>12180</v>
       </c>
       <c r="G99">
-        <v>2.741</v>
+        <v>2.7410000000000001</v>
       </c>
       <c r="H99">
         <v>14560</v>
@@ -4974,7 +4360,7 @@
         <v>1.992</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>146</v>
       </c>
@@ -4994,7 +4380,7 @@
         <v>16240</v>
       </c>
       <c r="G100">
-        <v>2.572</v>
+        <v>2.5720000000000001</v>
       </c>
       <c r="H100">
         <v>13580</v>
@@ -5003,7 +4389,7 @@
         <v>1.887</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>147</v>
       </c>
@@ -5032,7 +4418,7 @@
         <v>1.974</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>148</v>
       </c>
@@ -5052,16 +4438,16 @@
         <v>15540</v>
       </c>
       <c r="G102">
-        <v>2.106</v>
+        <v>2.1059999999999999</v>
       </c>
       <c r="H102">
         <v>7280</v>
       </c>
       <c r="I102">
-        <v>1.951</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>1.9510000000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>149</v>
       </c>
@@ -5081,16 +4467,16 @@
         <v>14840</v>
       </c>
       <c r="G103">
-        <v>2.03</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="H103">
         <v>560</v>
       </c>
       <c r="I103">
-        <v>0.277</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>0.27700000000000002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>150</v>
       </c>
@@ -5110,16 +4496,16 @@
         <v>14140</v>
       </c>
       <c r="G104">
-        <v>2.003</v>
+        <v>2.0030000000000001</v>
       </c>
       <c r="H104">
         <v>2940</v>
       </c>
       <c r="I104">
-        <v>1.003</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>1.0029999999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>151</v>
       </c>
@@ -5139,16 +4525,16 @@
         <v>4480</v>
       </c>
       <c r="G105">
-        <v>0.968</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="H105">
         <v>12180</v>
       </c>
       <c r="I105">
-        <v>2.741</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>2.7410000000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>152</v>
       </c>
@@ -5168,16 +4554,16 @@
         <v>14840</v>
       </c>
       <c r="G106">
-        <v>2.502</v>
+        <v>2.5019999999999998</v>
       </c>
       <c r="H106">
         <v>16240</v>
       </c>
       <c r="I106">
-        <v>2.572</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>2.5720000000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>153</v>
       </c>
@@ -5206,7 +4592,7 @@
         <v>2.633</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>154</v>
       </c>
@@ -5226,16 +4612,16 @@
         <v>2100</v>
       </c>
       <c r="G108">
-        <v>0.561</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="H108">
         <v>15540</v>
       </c>
       <c r="I108">
-        <v>2.106</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>2.1059999999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>155</v>
       </c>
@@ -5255,16 +4641,16 @@
         <v>4760</v>
       </c>
       <c r="G109">
-        <v>1.604</v>
+        <v>1.6040000000000001</v>
       </c>
       <c r="H109">
         <v>14840</v>
       </c>
       <c r="I109">
-        <v>2.03</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>156</v>
       </c>
@@ -5290,10 +4676,10 @@
         <v>14140</v>
       </c>
       <c r="I110">
-        <v>2.003</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>2.0030000000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>157</v>
       </c>
@@ -5313,16 +4699,16 @@
         <v>21980</v>
       </c>
       <c r="G111">
-        <v>3.019</v>
+        <v>3.0190000000000001</v>
       </c>
       <c r="H111">
         <v>4480</v>
       </c>
       <c r="I111">
-        <v>0.968</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>0.96799999999999997</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>158</v>
       </c>
@@ -5348,10 +4734,10 @@
         <v>14840</v>
       </c>
       <c r="I112">
-        <v>2.502</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>2.5019999999999998</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>159</v>
       </c>
@@ -5371,7 +4757,7 @@
         <v>12320</v>
       </c>
       <c r="G113">
-        <v>3.682</v>
+        <v>3.6819999999999999</v>
       </c>
       <c r="H113">
         <v>9240</v>
@@ -5380,7 +4766,7 @@
         <v>2.278</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>160</v>
       </c>
@@ -5400,16 +4786,16 @@
         <v>21560</v>
       </c>
       <c r="G114">
-        <v>2.853</v>
+        <v>2.8530000000000002</v>
       </c>
       <c r="H114">
         <v>2100</v>
       </c>
       <c r="I114">
-        <v>0.561</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>0.56100000000000005</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>161</v>
       </c>
@@ -5435,10 +4821,10 @@
         <v>4760</v>
       </c>
       <c r="I115">
-        <v>1.604</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>1.6040000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>162</v>
       </c>
@@ -5467,7 +4853,7 @@
         <v>2.194</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>163</v>
       </c>
@@ -5487,16 +4873,16 @@
         <v>20300</v>
       </c>
       <c r="G117">
-        <v>2.921</v>
+        <v>2.9209999999999998</v>
       </c>
       <c r="H117">
         <v>21980</v>
       </c>
       <c r="I117">
-        <v>3.019</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>3.0190000000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>164</v>
       </c>
@@ -5516,7 +4902,7 @@
         <v>19740</v>
       </c>
       <c r="G118">
-        <v>2.686</v>
+        <v>2.6859999999999999</v>
       </c>
       <c r="H118">
         <v>20160</v>
@@ -5525,7 +4911,7 @@
         <v>3.036</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>165</v>
       </c>
@@ -5545,16 +4931,16 @@
         <v>8120</v>
       </c>
       <c r="G119">
-        <v>2.088</v>
+        <v>2.0880000000000001</v>
       </c>
       <c r="H119">
         <v>12320</v>
       </c>
       <c r="I119">
-        <v>3.682</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>3.6819999999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>166</v>
       </c>
@@ -5574,16 +4960,16 @@
         <v>1820</v>
       </c>
       <c r="G120">
-        <v>0.411</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="H120">
         <v>21560</v>
       </c>
       <c r="I120">
-        <v>2.853</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>2.8530000000000002</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>167</v>
       </c>
@@ -5603,7 +4989,7 @@
         <v>8820</v>
       </c>
       <c r="G121">
-        <v>2.525</v>
+        <v>2.5249999999999999</v>
       </c>
       <c r="H121">
         <v>8960</v>
@@ -5612,7 +4998,7 @@
         <v>1.887</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>168</v>
       </c>
@@ -5632,7 +5018,7 @@
         <v>18340</v>
       </c>
       <c r="G122">
-        <v>2.412</v>
+        <v>2.4119999999999999</v>
       </c>
       <c r="H122">
         <v>20300</v>
@@ -5641,7 +5027,7 @@
         <v>2.907</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>169</v>
       </c>
@@ -5661,16 +5047,16 @@
         <v>3780</v>
       </c>
       <c r="G123">
-        <v>0.961</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="H123">
         <v>20300</v>
       </c>
       <c r="I123">
-        <v>2.921</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>2.9209999999999998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>170</v>
       </c>
@@ -5690,16 +5076,16 @@
         <v>5320</v>
       </c>
       <c r="G124">
-        <v>0.968</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="H124">
         <v>19740</v>
       </c>
       <c r="I124">
-        <v>2.686</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>2.6859999999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>171</v>
       </c>
@@ -5725,10 +5111,10 @@
         <v>8120</v>
       </c>
       <c r="I125">
-        <v>2.088</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>2.0880000000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>172</v>
       </c>
@@ -5748,16 +5134,16 @@
         <v>21840</v>
       </c>
       <c r="G126">
-        <v>3.299</v>
+        <v>3.2989999999999999</v>
       </c>
       <c r="H126">
         <v>1820</v>
       </c>
       <c r="I126">
-        <v>0.411</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>0.41099999999999998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>173</v>
       </c>
@@ -5777,16 +5163,16 @@
         <v>21840</v>
       </c>
       <c r="G127">
-        <v>2.935</v>
+        <v>2.9350000000000001</v>
       </c>
       <c r="H127">
         <v>8820</v>
       </c>
       <c r="I127">
-        <v>2.525</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>2.5249999999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>175</v>
       </c>
@@ -5812,10 +5198,10 @@
         <v>18340</v>
       </c>
       <c r="I128">
-        <v>2.412</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>2.4119999999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>177</v>
       </c>
@@ -5835,16 +5221,16 @@
         <v>16800</v>
       </c>
       <c r="G129">
-        <v>3.441</v>
+        <v>3.4409999999999998</v>
       </c>
       <c r="H129">
         <v>3780</v>
       </c>
       <c r="I129">
-        <v>0.961</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>0.96099999999999997</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>179</v>
       </c>
@@ -5870,10 +5256,10 @@
         <v>5320</v>
       </c>
       <c r="I130">
-        <v>0.968</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>0.96799999999999997</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>180</v>
       </c>
@@ -5902,7 +5288,7 @@
         <v>1.361</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>181</v>
       </c>
@@ -5928,10 +5314,10 @@
         <v>21840</v>
       </c>
       <c r="I132">
-        <v>3.299</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>3.2989999999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>182</v>
       </c>
@@ -5957,10 +5343,10 @@
         <v>21840</v>
       </c>
       <c r="I133">
-        <v>2.935</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>2.9350000000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>183</v>
       </c>
@@ -5989,7 +5375,7 @@
         <v>2.702</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>184</v>
       </c>
@@ -6015,10 +5401,10 @@
         <v>16800</v>
       </c>
       <c r="I135">
-        <v>3.441</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>3.4409999999999998</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>185</v>
       </c>
@@ -6038,7 +5424,7 @@
         <v>2380</v>
       </c>
       <c r="G136">
-        <v>0.665</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="H136">
         <v>23380</v>
@@ -6047,7 +5433,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>186</v>
       </c>
@@ -6067,7 +5453,7 @@
         <v>24780</v>
       </c>
       <c r="G137">
-        <v>3.163</v>
+        <v>3.1629999999999998</v>
       </c>
       <c r="H137">
         <v>23380</v>
@@ -6076,7 +5462,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>187</v>
       </c>
@@ -6096,7 +5482,7 @@
         <v>21840</v>
       </c>
       <c r="G138">
-        <v>3.292</v>
+        <v>3.2919999999999998</v>
       </c>
       <c r="H138">
         <v>7700</v>
@@ -6105,7 +5491,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>188</v>
       </c>
@@ -6125,7 +5511,7 @@
         <v>20720</v>
       </c>
       <c r="G139">
-        <v>3.276</v>
+        <v>3.2759999999999998</v>
       </c>
       <c r="H139">
         <v>12600</v>
@@ -6134,7 +5520,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>189</v>
       </c>
@@ -6163,7 +5549,7 @@
         <v>0.499</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>190</v>
       </c>
@@ -6192,7 +5578,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>191</v>
       </c>
@@ -6212,16 +5598,16 @@
         <v>19040</v>
       </c>
       <c r="G142">
-        <v>3.144</v>
+        <v>3.1440000000000001</v>
       </c>
       <c r="H142">
         <v>2380</v>
       </c>
       <c r="I142">
-        <v>0.665</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>0.66500000000000004</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>192</v>
       </c>
@@ -6241,16 +5627,16 @@
         <v>14000</v>
       </c>
       <c r="G143">
-        <v>3.112</v>
+        <v>3.1120000000000001</v>
       </c>
       <c r="H143">
         <v>24780</v>
       </c>
       <c r="I143">
-        <v>3.163</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>3.1629999999999998</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>193</v>
       </c>
@@ -6270,16 +5656,16 @@
         <v>16520</v>
       </c>
       <c r="G144">
-        <v>2.755</v>
+        <v>2.7549999999999999</v>
       </c>
       <c r="H144">
         <v>21840</v>
       </c>
       <c r="I144">
-        <v>3.292</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>3.2919999999999998</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>194</v>
       </c>
@@ -6299,16 +5685,16 @@
         <v>14560</v>
       </c>
       <c r="G145">
-        <v>2.436</v>
+        <v>2.4359999999999999</v>
       </c>
       <c r="H145">
         <v>20720</v>
       </c>
       <c r="I145">
-        <v>3.276</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>3.2759999999999998</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>195</v>
       </c>
@@ -6337,7 +5723,7 @@
         <v>3.242</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>196</v>
       </c>
@@ -6357,7 +5743,7 @@
         <v>6580</v>
       </c>
       <c r="G147">
-        <v>2.072</v>
+        <v>2.0720000000000001</v>
       </c>
       <c r="H147">
         <v>4060</v>
@@ -6366,7 +5752,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>197</v>
       </c>
@@ -6386,16 +5772,16 @@
         <v>20160</v>
       </c>
       <c r="G148">
-        <v>2.539</v>
+        <v>2.5390000000000001</v>
       </c>
       <c r="H148">
         <v>19040</v>
       </c>
       <c r="I148">
-        <v>3.144</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>3.1440000000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>198</v>
       </c>
@@ -6415,16 +5801,16 @@
         <v>5320</v>
       </c>
       <c r="G149">
-        <v>1.235</v>
+        <v>1.2350000000000001</v>
       </c>
       <c r="H149">
         <v>14000</v>
       </c>
       <c r="I149">
-        <v>3.112</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>3.1120000000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>199</v>
       </c>
@@ -6450,10 +5836,10 @@
         <v>16520</v>
       </c>
       <c r="I150">
-        <v>2.755</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>2.7549999999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
         <v>201</v>
       </c>
@@ -6479,10 +5865,10 @@
         <v>14560</v>
       </c>
       <c r="I151">
-        <v>2.436</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>2.4359999999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>203</v>
       </c>
@@ -6502,7 +5888,7 @@
         <v>16660</v>
       </c>
       <c r="G152">
-        <v>2.445</v>
+        <v>2.4449999999999998</v>
       </c>
       <c r="H152">
         <v>18200</v>
@@ -6511,7 +5897,7 @@
         <v>2.843</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>204</v>
       </c>
@@ -6531,16 +5917,16 @@
         <v>5740</v>
       </c>
       <c r="G153">
-        <v>1.604</v>
+        <v>1.6040000000000001</v>
       </c>
       <c r="H153">
         <v>6580</v>
       </c>
       <c r="I153">
-        <v>2.072</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>2.0720000000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>205</v>
       </c>
@@ -6560,16 +5946,16 @@
         <v>5740</v>
       </c>
       <c r="G154">
-        <v>2.271</v>
+        <v>2.2709999999999999</v>
       </c>
       <c r="H154">
         <v>20160</v>
       </c>
       <c r="I154">
-        <v>2.539</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>2.5390000000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
         <v>206</v>
       </c>
@@ -6589,16 +5975,16 @@
         <v>24220</v>
       </c>
       <c r="G155">
-        <v>3.557</v>
+        <v>3.5569999999999999</v>
       </c>
       <c r="H155">
         <v>5320</v>
       </c>
       <c r="I155">
-        <v>1.235</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>1.2350000000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
         <v>207</v>
       </c>
@@ -6627,7 +6013,7 @@
         <v>2.617</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
         <v>208</v>
       </c>
@@ -6647,7 +6033,7 @@
         <v>27720</v>
       </c>
       <c r="G157">
-        <v>3.705</v>
+        <v>3.7050000000000001</v>
       </c>
       <c r="H157">
         <v>18200</v>
@@ -6656,7 +6042,7 @@
         <v>2.552</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
         <v>210</v>
       </c>
@@ -6682,10 +6068,10 @@
         <v>16660</v>
       </c>
       <c r="I158">
-        <v>2.445</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>2.4449999999999998</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
         <v>212</v>
       </c>
@@ -6711,10 +6097,10 @@
         <v>5740</v>
       </c>
       <c r="I159">
-        <v>1.604</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>1.6040000000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
         <v>213</v>
       </c>
@@ -6734,16 +6120,16 @@
         <v>29120</v>
       </c>
       <c r="G160">
-        <v>4.147</v>
+        <v>4.1470000000000002</v>
       </c>
       <c r="H160">
         <v>5740</v>
       </c>
       <c r="I160">
-        <v>2.271</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>2.2709999999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
         <v>214</v>
       </c>
@@ -6763,16 +6149,16 @@
         <v>14420</v>
       </c>
       <c r="G161">
-        <v>4.257</v>
+        <v>4.2569999999999997</v>
       </c>
       <c r="H161">
         <v>24220</v>
       </c>
       <c r="I161">
-        <v>3.557</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>3.5569999999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
         <v>215</v>
       </c>
@@ -6801,7 +6187,7 @@
         <v>3.383</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
         <v>216</v>
       </c>
@@ -6821,16 +6207,16 @@
         <v>14840</v>
       </c>
       <c r="G163">
-        <v>3.916</v>
+        <v>3.9159999999999999</v>
       </c>
       <c r="H163">
         <v>27720</v>
       </c>
       <c r="I163">
-        <v>3.705</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>3.7050000000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
         <v>217</v>
       </c>
@@ -6850,7 +6236,7 @@
         <v>3640</v>
       </c>
       <c r="G164">
-        <v>1.136</v>
+        <v>1.1359999999999999</v>
       </c>
       <c r="H164">
         <v>29120</v>
@@ -6859,7 +6245,7 @@
         <v>3.722</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
         <v>218</v>
       </c>
@@ -6879,7 +6265,7 @@
         <v>24780</v>
       </c>
       <c r="G165">
-        <v>4.478</v>
+        <v>4.4779999999999998</v>
       </c>
       <c r="H165">
         <v>30240</v>
@@ -6888,7 +6274,7 @@
         <v>3.883</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
         <v>219</v>
       </c>
@@ -6908,16 +6294,16 @@
         <v>28560</v>
       </c>
       <c r="G166">
-        <v>4.376</v>
+        <v>4.3760000000000003</v>
       </c>
       <c r="H166">
         <v>29120</v>
       </c>
       <c r="I166">
-        <v>4.147</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>4.1470000000000002</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
         <v>220</v>
       </c>
@@ -6937,16 +6323,16 @@
         <v>23800</v>
       </c>
       <c r="G167">
-        <v>4.728</v>
+        <v>4.7279999999999998</v>
       </c>
       <c r="H167">
         <v>14420</v>
       </c>
       <c r="I167">
-        <v>4.257</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>4.2569999999999997</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
         <v>221</v>
       </c>
@@ -6975,7 +6361,7 @@
         <v>1.321</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
         <v>222</v>
       </c>
@@ -6995,16 +6381,16 @@
         <v>30240</v>
       </c>
       <c r="G169">
-        <v>4.572</v>
+        <v>4.5720000000000001</v>
       </c>
       <c r="H169">
         <v>14840</v>
       </c>
       <c r="I169">
-        <v>3.916</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>3.9159999999999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
         <v>223</v>
       </c>
@@ -7030,10 +6416,10 @@
         <v>3640</v>
       </c>
       <c r="I170">
-        <v>1.136</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>1.1359999999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
         <v>224</v>
       </c>
@@ -7059,10 +6445,10 @@
         <v>24780</v>
       </c>
       <c r="I171">
-        <v>4.478</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>4.4779999999999998</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
         <v>225</v>
       </c>
@@ -7082,16 +6468,16 @@
         <v>14140</v>
       </c>
       <c r="G172">
-        <v>3.062</v>
+        <v>3.0619999999999998</v>
       </c>
       <c r="H172">
         <v>28560</v>
       </c>
       <c r="I172">
-        <v>4.376</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>4.3760000000000003</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
         <v>226</v>
       </c>
@@ -7111,16 +6497,16 @@
         <v>11620</v>
       </c>
       <c r="G173">
-        <v>3.287</v>
+        <v>3.2869999999999999</v>
       </c>
       <c r="H173">
         <v>23800</v>
       </c>
       <c r="I173">
-        <v>4.728</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>4.7279999999999998</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
         <v>227</v>
       </c>
@@ -7140,7 +6526,7 @@
         <v>33600</v>
       </c>
       <c r="G174">
-        <v>3.922</v>
+        <v>3.9220000000000002</v>
       </c>
       <c r="H174">
         <v>32620</v>
@@ -7149,7 +6535,7 @@
         <v>3.883</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
         <v>228</v>
       </c>
@@ -7169,16 +6555,16 @@
         <v>14980</v>
       </c>
       <c r="G175">
-        <v>3.388</v>
+        <v>3.3879999999999999</v>
       </c>
       <c r="H175">
         <v>30240</v>
       </c>
       <c r="I175">
-        <v>4.572</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>4.5720000000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
         <v>229</v>
       </c>
@@ -7207,7 +6593,7 @@
         <v>3.665</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
         <v>230</v>
       </c>
@@ -7236,7 +6622,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
         <v>231</v>
       </c>
@@ -7262,10 +6648,10 @@
         <v>14140</v>
       </c>
       <c r="I178">
-        <v>3.062</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>3.0619999999999998</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
         <v>232</v>
       </c>
@@ -7291,10 +6677,10 @@
         <v>11620</v>
       </c>
       <c r="I179">
-        <v>3.287</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>3.2869999999999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
         <v>233</v>
       </c>
@@ -7320,10 +6706,10 @@
         <v>33600</v>
       </c>
       <c r="I180">
-        <v>3.922</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>3.9220000000000002</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
         <v>234</v>
       </c>
@@ -7343,16 +6729,16 @@
         <v>20020</v>
       </c>
       <c r="G181">
-        <v>3.424</v>
+        <v>3.4239999999999999</v>
       </c>
       <c r="H181">
         <v>14980</v>
       </c>
       <c r="I181">
-        <v>3.388</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>3.3879999999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
         <v>235</v>
       </c>
@@ -7372,7 +6758,7 @@
         <v>19460</v>
       </c>
       <c r="G182">
-        <v>3.763</v>
+        <v>3.7629999999999999</v>
       </c>
       <c r="H182">
         <v>24360</v>
@@ -7381,7 +6767,7 @@
         <v>3.718</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
         <v>236</v>
       </c>
@@ -7401,7 +6787,7 @@
         <v>21280</v>
       </c>
       <c r="G183">
-        <v>3.627</v>
+        <v>3.6269999999999998</v>
       </c>
       <c r="H183">
         <v>19040</v>
@@ -7410,7 +6796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
         <v>237</v>
       </c>
@@ -7439,7 +6825,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
         <v>238</v>
       </c>
@@ -7468,7 +6854,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
         <v>239</v>
       </c>
@@ -7497,7 +6883,7 @@
         <v>2.081</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
         <v>240</v>
       </c>
@@ -7523,10 +6909,10 @@
         <v>20020</v>
       </c>
       <c r="I187">
-        <v>3.424</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>3.4239999999999999</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
         <v>241</v>
       </c>
@@ -7552,10 +6938,10 @@
         <v>19460</v>
       </c>
       <c r="I188">
-        <v>3.763</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>3.7629999999999999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
         <v>242</v>
       </c>
@@ -7575,16 +6961,16 @@
         <v>13440</v>
       </c>
       <c r="G189">
-        <v>4.203</v>
+        <v>4.2030000000000003</v>
       </c>
       <c r="H189">
         <v>21280</v>
       </c>
       <c r="I189">
-        <v>3.627</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>3.6269999999999998</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
         <v>243</v>
       </c>
@@ -7604,7 +6990,7 @@
         <v>18200</v>
       </c>
       <c r="G190">
-        <v>0.482</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="H190">
         <v>5320</v>
@@ -7613,7 +6999,7 @@
         <v>1.238</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
         <v>244</v>
       </c>
@@ -7633,7 +7019,7 @@
         <v>22680</v>
       </c>
       <c r="G191">
-        <v>4.682</v>
+        <v>4.6820000000000004</v>
       </c>
       <c r="H191">
         <v>9520</v>
@@ -7642,7 +7028,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
         <v>245</v>
       </c>
@@ -7662,7 +7048,7 @@
         <v>14000</v>
       </c>
       <c r="G192">
-        <v>3.522</v>
+        <v>3.5219999999999998</v>
       </c>
       <c r="H192">
         <v>3920</v>
@@ -7671,7 +7057,7 @@
         <v>1.492</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
         <v>246</v>
       </c>
@@ -7691,7 +7077,7 @@
         <v>31080</v>
       </c>
       <c r="G193">
-        <v>4.309</v>
+        <v>4.3090000000000002</v>
       </c>
       <c r="H193">
         <v>8400</v>
@@ -7700,7 +7086,7 @@
         <v>1.726</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
         <v>247</v>
       </c>
@@ -7720,7 +7106,7 @@
         <v>28280</v>
       </c>
       <c r="G194">
-        <v>4.273</v>
+        <v>4.2729999999999997</v>
       </c>
       <c r="H194">
         <v>19040</v>
@@ -7729,7 +7115,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
         <v>248</v>
       </c>
@@ -7749,16 +7135,16 @@
         <v>27160</v>
       </c>
       <c r="G195">
-        <v>4.177</v>
+        <v>4.1769999999999996</v>
       </c>
       <c r="H195">
         <v>13440</v>
       </c>
       <c r="I195">
-        <v>4.203</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>4.2030000000000003</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
         <v>249</v>
       </c>
@@ -7784,10 +7170,10 @@
         <v>18200</v>
       </c>
       <c r="I196">
-        <v>0.482</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>0.48199999999999998</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
         <v>250</v>
       </c>
@@ -7813,10 +7199,10 @@
         <v>22680</v>
       </c>
       <c r="I197">
-        <v>4.682</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>4.6820000000000004</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
         <v>251</v>
       </c>
@@ -7836,16 +7222,16 @@
         <v>28000</v>
       </c>
       <c r="G198">
-        <v>4.042</v>
+        <v>4.0419999999999998</v>
       </c>
       <c r="H198">
         <v>14000</v>
       </c>
       <c r="I198">
-        <v>3.522</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>3.5219999999999998</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
         <v>252</v>
       </c>
@@ -7865,16 +7251,16 @@
         <v>26180</v>
       </c>
       <c r="G199">
-        <v>4.022</v>
+        <v>4.0220000000000002</v>
       </c>
       <c r="H199">
         <v>31080</v>
       </c>
       <c r="I199">
-        <v>4.309</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>4.3090000000000002</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
         <v>253</v>
       </c>
@@ -7894,16 +7280,16 @@
         <v>32060</v>
       </c>
       <c r="G200">
-        <v>3.934</v>
+        <v>3.9340000000000002</v>
       </c>
       <c r="H200">
         <v>28280</v>
       </c>
       <c r="I200">
-        <v>4.273</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>4.2729999999999997</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
         <v>254</v>
       </c>
@@ -7923,16 +7309,16 @@
         <v>30520</v>
       </c>
       <c r="G201">
-        <v>3.985</v>
+        <v>3.9849999999999999</v>
       </c>
       <c r="H201">
         <v>27160</v>
       </c>
       <c r="I201">
-        <v>4.177</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>4.1769999999999996</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
         <v>256</v>
       </c>
@@ -7952,7 +7338,7 @@
         <v>25200</v>
       </c>
       <c r="G202">
-        <v>4.213</v>
+        <v>4.2130000000000001</v>
       </c>
       <c r="H202">
         <v>31360</v>
@@ -7961,7 +7347,7 @@
         <v>4.202</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
         <v>257</v>
       </c>
@@ -7981,7 +7367,7 @@
         <v>16800</v>
       </c>
       <c r="G203">
-        <v>4.364</v>
+        <v>4.3639999999999999</v>
       </c>
       <c r="H203">
         <v>24360</v>
@@ -7990,7 +7376,7 @@
         <v>3.923</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
         <v>258</v>
       </c>
@@ -8010,16 +7396,16 @@
         <v>17920</v>
       </c>
       <c r="G204">
-        <v>4.475</v>
+        <v>4.4749999999999996</v>
       </c>
       <c r="H204">
         <v>28000</v>
       </c>
       <c r="I204">
-        <v>4.042</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
+        <v>4.0419999999999998</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
         <v>259</v>
       </c>
@@ -8039,16 +7425,16 @@
         <v>18620</v>
       </c>
       <c r="G205">
-        <v>4.072</v>
+        <v>4.0720000000000001</v>
       </c>
       <c r="H205">
         <v>26180</v>
       </c>
       <c r="I205">
-        <v>4.022</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
+        <v>4.0220000000000002</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
         <v>260</v>
       </c>
@@ -8068,16 +7454,16 @@
         <v>25480</v>
       </c>
       <c r="G206">
-        <v>4.313</v>
+        <v>4.3129999999999997</v>
       </c>
       <c r="H206">
         <v>32060</v>
       </c>
       <c r="I206">
-        <v>3.934</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
+        <v>3.9340000000000002</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
         <v>261</v>
       </c>
@@ -8103,10 +7489,10 @@
         <v>30520</v>
       </c>
       <c r="I207">
-        <v>3.985</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
+        <v>3.9849999999999999</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
         <v>262</v>
       </c>
@@ -8132,10 +7518,10 @@
         <v>25200</v>
       </c>
       <c r="I208">
-        <v>4.213</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9">
+        <v>4.2130000000000001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
         <v>263</v>
       </c>
@@ -8161,10 +7547,10 @@
         <v>16800</v>
       </c>
       <c r="I209">
-        <v>4.364</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9">
+        <v>4.3639999999999999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
         <v>264</v>
       </c>
@@ -8184,16 +7570,16 @@
         <v>27720</v>
       </c>
       <c r="G210">
-        <v>4.126</v>
+        <v>4.1260000000000003</v>
       </c>
       <c r="H210">
         <v>17920</v>
       </c>
       <c r="I210">
-        <v>4.475</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9">
+        <v>4.4749999999999996</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
         <v>265</v>
       </c>
@@ -8213,16 +7599,16 @@
         <v>30660</v>
       </c>
       <c r="G211">
-        <v>3.946</v>
+        <v>3.9460000000000002</v>
       </c>
       <c r="H211">
         <v>18620</v>
       </c>
       <c r="I211">
-        <v>4.072</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9">
+        <v>4.0720000000000001</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
         <v>266</v>
       </c>
@@ -8242,16 +7628,16 @@
         <v>30800</v>
       </c>
       <c r="G212">
-        <v>3.837</v>
+        <v>3.8370000000000002</v>
       </c>
       <c r="H212">
         <v>25480</v>
       </c>
       <c r="I212">
-        <v>4.313</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9">
+        <v>4.3129999999999997</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
         <v>267</v>
       </c>
@@ -8271,7 +7657,7 @@
         <v>28000</v>
       </c>
       <c r="G213">
-        <v>3.759</v>
+        <v>3.7589999999999999</v>
       </c>
       <c r="H213">
         <v>19460</v>
@@ -8280,7 +7666,7 @@
         <v>4.923</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
         <v>268</v>
       </c>
@@ -8300,7 +7686,7 @@
         <v>26880</v>
       </c>
       <c r="G214">
-        <v>3.795</v>
+        <v>3.7949999999999999</v>
       </c>
       <c r="H214">
         <v>21420</v>
@@ -8309,7 +7695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
         <v>269</v>
       </c>
@@ -8329,7 +7715,7 @@
         <v>25760</v>
       </c>
       <c r="G215">
-        <v>4.025</v>
+        <v>4.0250000000000004</v>
       </c>
       <c r="H215">
         <v>25760</v>
@@ -8338,7 +7724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
         <v>270</v>
       </c>
@@ -8358,16 +7744,16 @@
         <v>25760</v>
       </c>
       <c r="G216">
-        <v>4.106</v>
+        <v>4.1059999999999999</v>
       </c>
       <c r="H216">
         <v>27720</v>
       </c>
       <c r="I216">
-        <v>4.126</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9">
+        <v>4.1260000000000003</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
         <v>271</v>
       </c>
@@ -8393,10 +7779,10 @@
         <v>30660</v>
       </c>
       <c r="I217">
-        <v>3.946</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9">
+        <v>3.9460000000000002</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
         <v>272</v>
       </c>
@@ -8416,16 +7802,16 @@
         <v>19740</v>
       </c>
       <c r="G218">
-        <v>3.807</v>
+        <v>3.8069999999999999</v>
       </c>
       <c r="H218">
         <v>30800</v>
       </c>
       <c r="I218">
-        <v>3.837</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9">
+        <v>3.8370000000000002</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
         <v>273</v>
       </c>
@@ -8445,16 +7831,16 @@
         <v>20860</v>
       </c>
       <c r="G219">
-        <v>4.722</v>
+        <v>4.7220000000000004</v>
       </c>
       <c r="H219">
         <v>28000</v>
       </c>
       <c r="I219">
-        <v>3.759</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9">
+        <v>3.7589999999999999</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
         <v>274</v>
       </c>
@@ -8474,16 +7860,16 @@
         <v>21280</v>
       </c>
       <c r="G220">
-        <v>4.336</v>
+        <v>4.3360000000000003</v>
       </c>
       <c r="H220">
         <v>26880</v>
       </c>
       <c r="I220">
-        <v>3.795</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9">
+        <v>3.7949999999999999</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
         <v>275</v>
       </c>
@@ -8503,16 +7889,16 @@
         <v>21280</v>
       </c>
       <c r="G221">
-        <v>3.803</v>
+        <v>3.8029999999999999</v>
       </c>
       <c r="H221">
         <v>25760</v>
       </c>
       <c r="I221">
-        <v>4.025</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9">
+        <v>4.0250000000000004</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
         <v>276</v>
       </c>
@@ -8532,16 +7918,16 @@
         <v>18760</v>
       </c>
       <c r="G222">
-        <v>3.283</v>
+        <v>3.2829999999999999</v>
       </c>
       <c r="H222">
         <v>25760</v>
       </c>
       <c r="I222">
-        <v>4.106</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
         <v>277</v>
       </c>
@@ -8561,7 +7947,7 @@
         <v>11620</v>
       </c>
       <c r="G223">
-        <v>4.178</v>
+        <v>4.1779999999999999</v>
       </c>
       <c r="H223">
         <v>26880</v>
@@ -8570,7 +7956,7 @@
         <v>4.649</v>
       </c>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
         <v>278</v>
       </c>
@@ -8590,16 +7976,16 @@
         <v>20720</v>
       </c>
       <c r="G224">
-        <v>4.488</v>
+        <v>4.4880000000000004</v>
       </c>
       <c r="H224">
         <v>19740</v>
       </c>
       <c r="I224">
-        <v>3.807</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9">
+        <v>3.8069999999999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
         <v>279</v>
       </c>
@@ -8619,16 +8005,16 @@
         <v>31640</v>
       </c>
       <c r="G225">
-        <v>3.995</v>
+        <v>3.9950000000000001</v>
       </c>
       <c r="H225">
         <v>20860</v>
       </c>
       <c r="I225">
-        <v>4.722</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9">
+        <v>4.7220000000000004</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
         <v>280</v>
       </c>
@@ -8648,16 +8034,16 @@
         <v>29400</v>
       </c>
       <c r="G226">
-        <v>4.217</v>
+        <v>4.2169999999999996</v>
       </c>
       <c r="H226">
         <v>21280</v>
       </c>
       <c r="I226">
-        <v>4.336</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9">
+        <v>4.3360000000000003</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
         <v>281</v>
       </c>
@@ -8683,10 +8069,10 @@
         <v>21280</v>
       </c>
       <c r="I227">
-        <v>3.803</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9">
+        <v>3.8029999999999999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
         <v>282</v>
       </c>
@@ -8706,16 +8092,16 @@
         <v>20440</v>
       </c>
       <c r="G228">
-        <v>4.496</v>
+        <v>4.4960000000000004</v>
       </c>
       <c r="H228">
         <v>18760</v>
       </c>
       <c r="I228">
-        <v>3.283</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9">
+        <v>3.2829999999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
         <v>283</v>
       </c>
@@ -8735,16 +8121,16 @@
         <v>15820</v>
       </c>
       <c r="G229">
-        <v>4.558</v>
+        <v>4.5579999999999998</v>
       </c>
       <c r="H229">
         <v>11620</v>
       </c>
       <c r="I229">
-        <v>4.178</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9">
+        <v>4.1779999999999999</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
         <v>284</v>
       </c>
@@ -8764,16 +8150,16 @@
         <v>27160</v>
       </c>
       <c r="G230">
-        <v>5.067</v>
+        <v>5.0670000000000002</v>
       </c>
       <c r="H230">
         <v>20720</v>
       </c>
       <c r="I230">
-        <v>4.488</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9">
+        <v>4.4880000000000004</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
         <v>285</v>
       </c>
@@ -8793,16 +8179,16 @@
         <v>32060</v>
       </c>
       <c r="G231">
-        <v>4.068</v>
+        <v>4.0679999999999996</v>
       </c>
       <c r="H231">
         <v>31640</v>
       </c>
       <c r="I231">
-        <v>3.995</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9">
+        <v>3.9950000000000001</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
         <v>286</v>
       </c>
@@ -8822,16 +8208,16 @@
         <v>19180</v>
       </c>
       <c r="G232">
-        <v>4.416</v>
+        <v>4.4160000000000004</v>
       </c>
       <c r="H232">
         <v>29400</v>
       </c>
       <c r="I232">
-        <v>4.217</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9">
+        <v>4.2169999999999996</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
         <v>287</v>
       </c>
@@ -8851,7 +8237,7 @@
         <v>24640</v>
       </c>
       <c r="G233">
-        <v>4.368</v>
+        <v>4.3680000000000003</v>
       </c>
       <c r="H233">
         <v>28140</v>
@@ -8860,7 +8246,7 @@
         <v>3.992</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
         <v>288</v>
       </c>
@@ -8880,16 +8266,16 @@
         <v>27160</v>
       </c>
       <c r="G234">
-        <v>3.961</v>
+        <v>3.9609999999999999</v>
       </c>
       <c r="H234">
         <v>20440</v>
       </c>
       <c r="I234">
-        <v>4.496</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9">
+        <v>4.4960000000000004</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
         <v>289</v>
       </c>
@@ -8909,16 +8295,16 @@
         <v>25340</v>
       </c>
       <c r="G235">
-        <v>3.978</v>
+        <v>3.9780000000000002</v>
       </c>
       <c r="H235">
         <v>15820</v>
       </c>
       <c r="I235">
-        <v>4.558</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9">
+        <v>4.5579999999999998</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
         <v>290</v>
       </c>
@@ -8944,10 +8330,10 @@
         <v>27160</v>
       </c>
       <c r="I236">
-        <v>5.067</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9">
+        <v>5.0670000000000002</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
         <v>291</v>
       </c>
@@ -8967,16 +8353,16 @@
         <v>23380</v>
       </c>
       <c r="G237">
-        <v>0.387</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="H237">
         <v>32060</v>
       </c>
       <c r="I237">
-        <v>4.068</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9">
+        <v>4.0679999999999996</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
         <v>292</v>
       </c>
@@ -9002,10 +8388,10 @@
         <v>19180</v>
       </c>
       <c r="I238">
-        <v>4.416</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9">
+        <v>4.4160000000000004</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
         <v>293</v>
       </c>
@@ -9031,10 +8417,10 @@
         <v>24640</v>
       </c>
       <c r="I239">
-        <v>4.368</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9">
+        <v>4.3680000000000003</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
         <v>294</v>
       </c>
@@ -9054,16 +8440,16 @@
         <v>5740</v>
       </c>
       <c r="G240">
-        <v>1.858</v>
+        <v>1.8580000000000001</v>
       </c>
       <c r="H240">
         <v>27160</v>
       </c>
       <c r="I240">
-        <v>3.961</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9">
+        <v>3.9609999999999999</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
         <v>295</v>
       </c>
@@ -9089,10 +8475,10 @@
         <v>25340</v>
       </c>
       <c r="I241">
-        <v>3.978</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9">
+        <v>3.9780000000000002</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
         <v>296</v>
       </c>
@@ -9121,7 +8507,7 @@
         <v>4.165</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
         <v>297</v>
       </c>
@@ -9147,10 +8533,10 @@
         <v>23380</v>
       </c>
       <c r="I243">
-        <v>0.387</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9">
+        <v>0.38700000000000001</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
         <v>298</v>
       </c>
@@ -9179,7 +8565,7 @@
         <v>3.746</v>
       </c>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
         <v>299</v>
       </c>
@@ -9208,7 +8594,7 @@
         <v>4.149</v>
       </c>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
         <v>300</v>
       </c>
@@ -9234,10 +8620,10 @@
         <v>5740</v>
       </c>
       <c r="I246">
-        <v>1.858</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9">
+        <v>1.8580000000000001</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
         <v>301</v>
       </c>
@@ -9266,7 +8652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
         <v>302</v>
       </c>
@@ -9295,7 +8681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
         <v>303</v>
       </c>
@@ -9324,7 +8710,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
         <v>304</v>
       </c>
@@ -9353,7 +8739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:9">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
         <v>305</v>
       </c>
@@ -9382,7 +8768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
         <v>306</v>
       </c>
@@ -9411,7 +8797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:9">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
         <v>307</v>
       </c>
@@ -9440,7 +8826,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="254" spans="1:9">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
         <v>308</v>
       </c>
@@ -9469,7 +8855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
         <v>309</v>
       </c>
@@ -9489,7 +8875,7 @@
         <v>11200</v>
       </c>
       <c r="G255">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H255">
         <v>24220</v>
@@ -9498,7 +8884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:9">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
         <v>310</v>
       </c>
@@ -9527,7 +8913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:9">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
         <v>311</v>
       </c>
@@ -9547,7 +8933,7 @@
         <v>9520</v>
       </c>
       <c r="G257">
-        <v>1.953</v>
+        <v>1.9530000000000001</v>
       </c>
       <c r="H257">
         <v>4760</v>
@@ -9556,7 +8942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:9">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
         <v>312</v>
       </c>
@@ -9576,7 +8962,7 @@
         <v>13440</v>
       </c>
       <c r="G258">
-        <v>2.364</v>
+        <v>2.3639999999999999</v>
       </c>
       <c r="H258">
         <v>12320</v>
@@ -9585,7 +8971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:9">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
         <v>313</v>
       </c>
@@ -9605,7 +8991,7 @@
         <v>25200</v>
       </c>
       <c r="G259">
-        <v>4.264</v>
+        <v>4.2640000000000002</v>
       </c>
       <c r="H259">
         <v>2800</v>
@@ -9614,7 +9000,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="260" spans="1:9">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
         <v>314</v>
       </c>
@@ -9634,7 +9020,7 @@
         <v>23660</v>
       </c>
       <c r="G260">
-        <v>4.158</v>
+        <v>4.1580000000000004</v>
       </c>
       <c r="H260">
         <v>9940</v>
@@ -9643,7 +9029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:9">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
         <v>315</v>
       </c>
@@ -9669,10 +9055,10 @@
         <v>11200</v>
       </c>
       <c r="I261">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
         <v>316</v>
       </c>
@@ -9701,7 +9087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:9">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
         <v>317</v>
       </c>
@@ -9721,16 +9107,16 @@
         <v>2800</v>
       </c>
       <c r="G263">
-        <v>0.985</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="H263">
         <v>9520</v>
       </c>
       <c r="I263">
-        <v>1.953</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9">
+        <v>1.9530000000000001</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
         <v>318</v>
       </c>
@@ -9750,16 +9136,16 @@
         <v>1960</v>
       </c>
       <c r="G264">
-        <v>0.846</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="H264">
         <v>13440</v>
       </c>
       <c r="I264">
-        <v>2.364</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9">
+        <v>2.3639999999999999</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
         <v>319</v>
       </c>
@@ -9779,16 +9165,16 @@
         <v>4620</v>
       </c>
       <c r="G265">
-        <v>0.952</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="H265">
         <v>25200</v>
       </c>
       <c r="I265">
-        <v>4.264</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9">
+        <v>4.2640000000000002</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
         <v>320</v>
       </c>
@@ -9808,16 +9194,16 @@
         <v>23240</v>
       </c>
       <c r="G266">
-        <v>4.126</v>
+        <v>4.1260000000000003</v>
       </c>
       <c r="H266">
         <v>23660</v>
       </c>
       <c r="I266">
-        <v>4.158</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9">
+        <v>4.1580000000000004</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
         <v>321</v>
       </c>
@@ -9837,7 +9223,7 @@
         <v>23940</v>
       </c>
       <c r="G267">
-        <v>4.268</v>
+        <v>4.2679999999999998</v>
       </c>
       <c r="H267">
         <v>22120</v>
@@ -9846,7 +9232,7 @@
         <v>4.056</v>
       </c>
     </row>
-    <row r="268" spans="1:9">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
         <v>322</v>
       </c>
@@ -9866,7 +9252,7 @@
         <v>16800</v>
       </c>
       <c r="G268">
-        <v>2.124</v>
+        <v>2.1240000000000001</v>
       </c>
       <c r="H268">
         <v>7840</v>
@@ -9875,7 +9261,7 @@
         <v>1.268</v>
       </c>
     </row>
-    <row r="269" spans="1:9">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
         <v>323</v>
       </c>
@@ -9895,16 +9281,16 @@
         <v>23380</v>
       </c>
       <c r="G269">
-        <v>3.954</v>
+        <v>3.9540000000000002</v>
       </c>
       <c r="H269">
         <v>2800</v>
       </c>
       <c r="I269">
-        <v>0.985</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9">
+        <v>0.98499999999999999</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
         <v>324</v>
       </c>
@@ -9924,16 +9310,16 @@
         <v>23800</v>
       </c>
       <c r="G270">
-        <v>3.426</v>
+        <v>3.4260000000000002</v>
       </c>
       <c r="H270">
         <v>1960</v>
       </c>
       <c r="I270">
-        <v>0.846</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9">
+        <v>0.84599999999999997</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
         <v>325</v>
       </c>
@@ -9953,16 +9339,16 @@
         <v>21280</v>
       </c>
       <c r="G271">
-        <v>3.425</v>
+        <v>3.4249999999999998</v>
       </c>
       <c r="H271">
         <v>4620</v>
       </c>
       <c r="I271">
-        <v>0.952</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
         <v>326</v>
       </c>
@@ -9988,10 +9374,10 @@
         <v>23240</v>
       </c>
       <c r="I272">
-        <v>4.126</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9">
+        <v>4.1260000000000003</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
         <v>327</v>
       </c>
@@ -10017,10 +9403,10 @@
         <v>23940</v>
       </c>
       <c r="I273">
-        <v>4.268</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9">
+        <v>4.2679999999999998</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
         <v>328</v>
       </c>
@@ -10040,16 +9426,16 @@
         <v>6860</v>
       </c>
       <c r="G274">
-        <v>2.123</v>
+        <v>2.1230000000000002</v>
       </c>
       <c r="H274">
         <v>16800</v>
       </c>
       <c r="I274">
-        <v>2.124</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9">
+        <v>2.1240000000000001</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
         <v>329</v>
       </c>
@@ -10075,10 +9461,10 @@
         <v>23380</v>
       </c>
       <c r="I275">
-        <v>3.954</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9">
+        <v>3.9540000000000002</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
         <v>330</v>
       </c>
@@ -10098,16 +9484,16 @@
         <v>9800</v>
       </c>
       <c r="G276">
-        <v>1.523</v>
+        <v>1.5229999999999999</v>
       </c>
       <c r="H276">
         <v>23800</v>
       </c>
       <c r="I276">
-        <v>3.426</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9">
+        <v>3.4260000000000002</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
         <v>331</v>
       </c>
@@ -10127,16 +9513,16 @@
         <v>21140</v>
       </c>
       <c r="G277">
-        <v>2.586</v>
+        <v>2.5859999999999999</v>
       </c>
       <c r="H277">
         <v>21280</v>
       </c>
       <c r="I277">
-        <v>3.425</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9">
+        <v>3.4249999999999998</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
         <v>332</v>
       </c>
@@ -10165,7 +9551,7 @@
         <v>3.524</v>
       </c>
     </row>
-    <row r="279" spans="1:9">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
         <v>333</v>
       </c>
@@ -10185,7 +9571,7 @@
         <v>15120</v>
       </c>
       <c r="G279">
-        <v>2.123</v>
+        <v>2.1230000000000002</v>
       </c>
       <c r="H279">
         <v>15120</v>
@@ -10194,7 +9580,7 @@
         <v>2.988</v>
       </c>
     </row>
-    <row r="280" spans="1:9">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
         <v>334</v>
       </c>
@@ -10214,16 +9600,16 @@
         <v>13020</v>
       </c>
       <c r="G280">
-        <v>2.132</v>
+        <v>2.1320000000000001</v>
       </c>
       <c r="H280">
         <v>6860</v>
       </c>
       <c r="I280">
-        <v>2.123</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9">
+        <v>2.1230000000000002</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
         <v>335</v>
       </c>
@@ -10252,7 +9638,7 @@
         <v>2.222</v>
       </c>
     </row>
-    <row r="282" spans="1:9">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
         <v>336</v>
       </c>
@@ -10272,16 +9658,16 @@
         <v>8400</v>
       </c>
       <c r="G282">
-        <v>1.523</v>
+        <v>1.5229999999999999</v>
       </c>
       <c r="H282">
         <v>9800</v>
       </c>
       <c r="I282">
-        <v>1.523</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9">
+        <v>1.5229999999999999</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
         <v>337</v>
       </c>
@@ -10307,10 +9693,10 @@
         <v>21140</v>
       </c>
       <c r="I283">
-        <v>2.586</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9">
+        <v>2.5859999999999999</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
         <v>338</v>
       </c>
@@ -10330,7 +9716,7 @@
         <v>8120</v>
       </c>
       <c r="G284">
-        <v>1.523</v>
+        <v>1.5229999999999999</v>
       </c>
       <c r="H284">
         <v>21280</v>
@@ -10339,7 +9725,7 @@
         <v>3.012</v>
       </c>
     </row>
-    <row r="285" spans="1:9">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
         <v>339</v>
       </c>
@@ -10359,16 +9745,16 @@
         <v>6440</v>
       </c>
       <c r="G285">
-        <v>0.889</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="H285">
         <v>15120</v>
       </c>
       <c r="I285">
-        <v>2.123</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9">
+        <v>2.1230000000000002</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
         <v>340</v>
       </c>
@@ -10388,16 +9774,16 @@
         <v>2940</v>
       </c>
       <c r="G286">
-        <v>0.562</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="H286">
         <v>13020</v>
       </c>
       <c r="I286">
-        <v>2.132</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9">
+        <v>2.1320000000000001</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
         <v>341</v>
       </c>
@@ -10417,7 +9803,7 @@
         <v>1680</v>
       </c>
       <c r="G287">
-        <v>0.543</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="H287">
         <v>3080</v>
@@ -10426,7 +9812,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="288" spans="1:9">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
         <v>342</v>
       </c>
@@ -10446,16 +9832,16 @@
         <v>1260</v>
       </c>
       <c r="G288">
-        <v>0.521</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="H288">
         <v>8400</v>
       </c>
       <c r="I288">
-        <v>1.523</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9">
+        <v>1.5229999999999999</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
         <v>343</v>
       </c>
@@ -10484,7 +9870,7 @@
         <v>2.456</v>
       </c>
     </row>
-    <row r="290" spans="1:9">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
         <v>344</v>
       </c>
@@ -10504,16 +9890,16 @@
         <v>10360</v>
       </c>
       <c r="G290">
-        <v>3.525</v>
+        <v>3.5249999999999999</v>
       </c>
       <c r="H290">
         <v>8120</v>
       </c>
       <c r="I290">
-        <v>1.523</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9">
+        <v>1.5229999999999999</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
         <v>345</v>
       </c>
@@ -10533,16 +9919,16 @@
         <v>14980</v>
       </c>
       <c r="G291">
-        <v>3.792</v>
+        <v>3.7919999999999998</v>
       </c>
       <c r="H291">
         <v>6440</v>
       </c>
       <c r="I291">
-        <v>0.889</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9">
+        <v>0.88900000000000001</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
         <v>346</v>
       </c>
@@ -10568,10 +9954,10 @@
         <v>2940</v>
       </c>
       <c r="I292">
-        <v>0.562</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9">
+        <v>0.56200000000000006</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
         <v>347</v>
       </c>
@@ -10591,16 +9977,16 @@
         <v>12320</v>
       </c>
       <c r="G293">
-        <v>3.197</v>
+        <v>3.1970000000000001</v>
       </c>
       <c r="H293">
         <v>1680</v>
       </c>
       <c r="I293">
-        <v>0.543</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9">
+        <v>0.54300000000000004</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A294" t="s">
         <v>348</v>
       </c>
@@ -10620,16 +10006,16 @@
         <v>15120</v>
       </c>
       <c r="G294">
-        <v>3.683</v>
+        <v>3.6829999999999998</v>
       </c>
       <c r="H294">
         <v>1260</v>
       </c>
       <c r="I294">
-        <v>0.521</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9">
+        <v>0.52100000000000002</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
         <v>349</v>
       </c>
@@ -10658,7 +10044,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="296" spans="1:9">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
         <v>350</v>
       </c>
@@ -10678,16 +10064,16 @@
         <v>14980</v>
       </c>
       <c r="G296">
-        <v>2.123</v>
+        <v>2.1230000000000002</v>
       </c>
       <c r="H296">
         <v>10360</v>
       </c>
       <c r="I296">
-        <v>3.525</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9">
+        <v>3.5249999999999999</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A297" t="s">
         <v>351</v>
       </c>
@@ -10707,16 +10093,16 @@
         <v>15400</v>
       </c>
       <c r="G297">
-        <v>1.564</v>
+        <v>1.5640000000000001</v>
       </c>
       <c r="H297">
         <v>14980</v>
       </c>
       <c r="I297">
-        <v>3.792</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9">
+        <v>3.7919999999999998</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
         <v>352</v>
       </c>
@@ -10745,7 +10131,7 @@
         <v>3.218</v>
       </c>
     </row>
-    <row r="299" spans="1:9">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A299" t="s">
         <v>353</v>
       </c>
@@ -10765,16 +10151,16 @@
         <v>14140</v>
       </c>
       <c r="G299">
-        <v>1.567</v>
+        <v>1.5669999999999999</v>
       </c>
       <c r="H299">
         <v>12320</v>
       </c>
       <c r="I299">
-        <v>3.197</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9">
+        <v>3.1970000000000001</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
         <v>354</v>
       </c>
@@ -10800,10 +10186,10 @@
         <v>15120</v>
       </c>
       <c r="I300">
-        <v>3.683</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9">
+        <v>3.6829999999999998</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
         <v>355</v>
       </c>
@@ -10832,7 +10218,7 @@
         <v>1.657</v>
       </c>
     </row>
-    <row r="302" spans="1:9">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A302" t="s">
         <v>356</v>
       </c>
@@ -10858,10 +10244,10 @@
         <v>14980</v>
       </c>
       <c r="I302">
-        <v>2.123</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9">
+        <v>2.1230000000000002</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
         <v>357</v>
       </c>
@@ -10887,10 +10273,10 @@
         <v>15400</v>
       </c>
       <c r="I303">
-        <v>1.564</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9">
+        <v>1.5640000000000001</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
         <v>358</v>
       </c>
@@ -10919,7 +10305,7 @@
         <v>1.657</v>
       </c>
     </row>
-    <row r="305" spans="1:9">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
         <v>359</v>
       </c>
@@ -10945,11 +10331,11 @@
         <v>14140</v>
       </c>
       <c r="I305">
-        <v>1.567</v>
+        <v>1.5669999999999999</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>